--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxDataLog.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxDataLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
@@ -1265,7 +1265,7 @@
         <v>12</v>
       </c>
       <c r="E13" s="39">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="41"/>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxDataLog.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/XX-系統/TxDataLog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22848" windowHeight="8988" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="96">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -276,100 +276,108 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo ^i ,AND CustNo =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TxSeq %</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo ^i ,AND CustNo = ,AND FacmNo =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo ^i ,AND CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCustNo4</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCustNo5</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCustNo6</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByCustNo7</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo %</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo % ,AND CustNo =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo % ,AND CustNo = ,AND FacmNo =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo % ,AND CustNo = ,AND FacmNo = ,AND BormNo =</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate Desc</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MrKey</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易編號/帳號</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TranNo = ,AND MrKey = </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTranNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reason</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate,TxSeq,TxSno</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxDate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxSeq</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo ^i</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo ^i ,AND CustNo =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TxSeq %</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo ^i ,AND CustNo = ,AND FacmNo =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo ^i ,AND CustNo = ,AND FacmNo = ,AND BormNo =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByCustNo4</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByCustNo5</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByCustNo6</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByCustNo7</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo %</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo % ,AND CustNo =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo % ,AND CustNo = ,AND FacmNo =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate &gt;= ,AND TxDate &lt;= ,AND TranNo % ,AND CustNo = ,AND FacmNo = ,AND BormNo =</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate Desc</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Index4</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MrKey</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易編號/帳號</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TranNo = ,AND MrKey = </t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTranNo</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Reason</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate,TxSeq,TxSno</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxDate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TxSeq</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>MrKey = ,AND TranNo ^i</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByMrKeyFirst</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1049,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="15.6"/>
@@ -1098,7 +1106,7 @@
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1157,7 +1165,7 @@
     </row>
     <row r="8" spans="1:7" ht="15" customHeight="1">
       <c r="A8" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="34"/>
       <c r="C8" s="35" t="s">
@@ -1196,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>60</v>
@@ -1216,7 +1224,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>24</v>
@@ -1256,10 +1264,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>85</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>86</v>
       </c>
       <c r="D13" s="38" t="s">
         <v>12</v>
@@ -1376,7 +1384,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>61</v>
@@ -1468,7 +1476,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>23</v>
@@ -1496,16 +1504,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B5"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="16" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="99.21875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30" style="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
@@ -1527,7 +1535,7 @@
         <v>57</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>48</v>
@@ -1538,7 +1546,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>48</v>
@@ -1549,7 +1557,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>48</v>
@@ -1560,7 +1568,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>48</v>
@@ -1571,7 +1579,7 @@
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>59</v>
@@ -1579,57 +1587,68 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
